--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>-0.7258201309573775</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-1.324983933426882</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>-0.4252238776383699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>-0.3900454704678369</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>-0.608538493861166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>-0.2995848153489522</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>-0.007565898326467035</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.2075757021743008</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>0.07493742497184375</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.124712275190686</v>
+        <v>-0.06726240733891942</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.02565626552746281</v>
+        <v>-0.4774698422615242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.255298189276465</v>
+        <v>-0.3584575688954428</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.05470007129930732</v>
+        <v>-0.4112436562971</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07418514192796266</v>
+        <v>-0.009688851112665819</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.1118063021044113</v>
+        <v>-0.3537462851234685</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.07611406013281474</v>
+        <v>-0.1132037832954791</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.1441854746430216</v>
+        <v>-0.3204027102583273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.191300579729714</v>
+        <v>-0.2638577853126156</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.09771527089190712</v>
+        <v>-0.3143428957755656</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.1141271696349921</v>
+        <v>0.04166709579394023</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.1267333805689663</v>
+        <v>-0.2532926704812977</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.7251499616078294</v>
+        <v>-0.7671134292608239</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.1802771585606822</v>
+        <v>-0.3480983700859808</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.2662518592309704</v>
+        <v>-0.2043373675692961</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.7718622268289566</v>
+        <v>-0.1872494743064723</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.798036187070017</v>
+        <v>-0.8080927309597863</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.025374137035028</v>
+        <v>-0.1644030883838465</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.655159161221598</v>
+        <v>-1.697148566375528</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.1441694350656331</v>
+        <v>-0.2339923140600275</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.5990045920093001</v>
+        <v>-0.6247846736575413</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.09594573104433346</v>
+        <v>-0.3554771869619944</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.06180454587446649</v>
+        <v>-0.09040308684795662</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.08108884376691883</v>
+        <v>-0.3159097170635006</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4327853568336204</v>
+        <v>0.3813481955213138</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2080746432969294</v>
+        <v>-0.2523778956734835</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>0.1037184923425638</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>0.1523866428317699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>-0.3429736775751868</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>-0.1149259972201833</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>-0.2064822032187164</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>-0.1075365560329056</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.06726240733891942</v>
+        <v>0.005797897989445744</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.4774698422615242</v>
+        <v>-0.05125851421730054</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.3584575688954428</v>
+        <v>0.2273278155300318</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.4112436562971</v>
+        <v>0.001779459905826286</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.009688851112665819</v>
+        <v>-0.2723669344146917</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.3537462851234685</v>
+        <v>-0.1573879283727764</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.1132037832954791</v>
+        <v>-0.05011389829933099</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.3204027102583273</v>
+        <v>-0.1100689213476058</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.2638577853126156</v>
+        <v>0.2788833036191596</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>-0.3143428957755656</v>
+        <v>-0.1416348838281123</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.04166709579394023</v>
+        <v>-0.1459594536071473</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.2532926704812977</v>
+        <v>-0.1825768856163368</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.7671134292608239</v>
+        <v>-0.2305835819295887</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.3480983700859808</v>
+        <v>-0.2087674606261247</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.2043373675692961</v>
+        <v>-0.3292346503903532</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.1872494743064723</v>
+        <v>-0.09082057608673644</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.8080927309597863</v>
+        <v>-0.05652554630790618</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1644030883838465</v>
+        <v>0.149910086121019</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.697148566375528</v>
+        <v>1.183936177705625</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.2339923140600275</v>
+        <v>0.1147913851119675</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6247846736575413</v>
+        <v>0.8096199637471102</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.3554771869619944</v>
+        <v>-0.08981539700775309</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.09040308684795662</v>
+        <v>-1.085560181261136</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.3159097170635006</v>
+        <v>-0.09271976299123352</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.3813481955213138</v>
+        <v>0.5641976336596244</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.2523778956734835</v>
+        <v>-0.1178589452312528</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.05652554630790618</v>
+        <v>-0.2970982048608128</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.149910086121019</v>
+        <v>-0.07610064641830894</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.183936177705625</v>
+        <v>0.9873422665386489</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.1147913851119675</v>
+        <v>0.03847099707416923</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8096199637471102</v>
+        <v>0.7605498842334635</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.08981539700775309</v>
+        <v>-0.05891731780507392</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.085560181261136</v>
+        <v>-1.000055557176827</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.09271976299123352</v>
+        <v>-0.08363380984689472</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5641976336596244</v>
+        <v>0.5724023773773013</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.1178589452312528</v>
+        <v>-0.1105236148505218</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AR2_50_9_summer.xlsx
@@ -445,13 +445,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.1037184923425638</v>
+        <v>0.103718492342586</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.1523866428317699</v>
+        <v>0.1523866428317477</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,7 +468,7 @@
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>-0.1149259972201833</v>
+        <v>-0.1149259972201611</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,7 +479,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.2064822032187164</v>
+        <v>-0.2064822032187386</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -502,7 +502,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.05125851421730054</v>
+        <v>-0.05125851421728944</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -519,7 +519,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.001779459905826286</v>
+        <v>0.001779459905804082</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -547,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.05011389829933099</v>
+        <v>-0.0501138982993421</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.1100689213476058</v>
+        <v>-0.1100689213475947</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.2788833036191596</v>
+        <v>0.2788833036191374</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -587,7 +587,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.1825768856163368</v>
+        <v>-0.1825768856163257</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.2305835819295887</v>
+        <v>-0.2305835819295776</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.2087674606261247</v>
+        <v>-0.2087674606261358</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.2970982048608128</v>
+        <v>-0.2970982048607906</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.07610064641830894</v>
+        <v>-0.07610064641832004</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,7 +649,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.9873422665386489</v>
+        <v>0.9873422665386711</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -672,7 +672,7 @@
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.05891731780507392</v>
+        <v>-0.05891731780506282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,7 +689,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.08363380984689472</v>
+        <v>-0.08363380984691693</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,7 +700,7 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.5724023773773013</v>
+        <v>0.5724023773773235</v>
       </c>
       <c r="D19">
         <v>2026</v>
